--- a/biology/Zoologie/Acantheis_nipponicus/Acantheis_nipponicus.xlsx
+++ b/biology/Zoologie/Acantheis_nipponicus/Acantheis_nipponicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acantheis nipponicus est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acantheis nipponicus est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel d'Ogasawara au Japon[1],[2]. Elle se rencontre sur l'île Minamiiwo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel d'Ogasawara au Japon,. Elle se rencontre sur l'île Minamiiwo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 8,56 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 8,56 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Japon.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ono, 2008 : Five new spiders of the families Dictynidae, Cybaeidae, Coelotidae and Ctenidae (Arachnida, Araneae) from Japan. Bulletin of the National Museum of Nature and Science. Series A, Zoology, vol. 34, no 3, p. 157-171 (texte intégral).</t>
         </is>
